--- a/Bioc/Dane.xlsx
+++ b/Bioc/Dane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>modelCNN.model</t>
+          <t>modelSVM.pkl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -469,11 +469,9 @@
           <t>audio files/</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0.4256819188594818</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>0.894859790802002</v>
+        <v>0.9252336448598131</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +480,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>modelRNN.model</t>
+          <t>modelRandomForest.pkl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -490,11 +488,9 @@
           <t>audio files/</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0.1860886365175247</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>0.9439252614974976</v>
+        <v>0.9485981308411215</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>modelMLP.model</t>
+          <t>modelCNN.model</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -512,10 +508,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1019595563411713</v>
+        <v>0.4256819188594818</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9742990732192993</v>
+        <v>0.894859790802002</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +520,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>modelCNN.model</t>
+          <t>modelRNN.model</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>files/</t>
+          <t>audio files/</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.569734334945679</v>
+        <v>0.1860886365175247</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6206896305084229</v>
+        <v>0.9439252614974976</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +541,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>modelRNN.model</t>
+          <t>modelMLP.model</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>files/</t>
+          <t>audio files/</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.974804401397705</v>
+        <v>0.1019595563411713</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1724137961864471</v>
+        <v>0.9742990732192993</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +562,99 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>modelSVM.pkl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>files/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.1212121212121212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>modelRandomForest.pkl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>files/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>modelCNN.model</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>files/</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3.656139612197876</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6363636255264282</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>modelRNN.model</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>files/</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3.805042266845703</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1818181872367859</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>modelMLP.model</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>files/</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>3.603017568588257</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5862069129943848</v>
+      <c r="D11" t="n">
+        <v>3.09204888343811</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6060606241226196</v>
       </c>
     </row>
   </sheetData>

--- a/Bioc/Dane.xlsx
+++ b/Bioc/Dane.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\PycharmProjects\pythonProject6\Bioc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F62A91-B016-481C-8AA1-2433349922F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+  <si>
+    <t>Model Testu</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Test score</t>
+  </si>
+  <si>
+    <t>Test accuracy</t>
+  </si>
+  <si>
+    <t>modelSVM.pkl</t>
+  </si>
+  <si>
+    <t>audio files/</t>
+  </si>
+  <si>
+    <t>modelRandomForest.pkl</t>
+  </si>
+  <si>
+    <t>modelCNN.model</t>
+  </si>
+  <si>
+    <t>modelRNN.model</t>
+  </si>
+  <si>
+    <t>modelMLP.model</t>
+  </si>
+  <si>
+    <t>files/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,241 +414,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Model Testu</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Path</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Test score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Test accuracy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>modelSVM.pkl</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>audio files/</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0.9252336448598131</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>modelRandomForest.pkl</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>audio files/</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0.9485981308411215</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>modelCNN.model</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>audio files/</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4256819188594818</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.894859790802002</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>modelRNN.model</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>audio files/</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1860886365175247</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9439252614974976</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>modelMLP.model</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>audio files/</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1019595563411713</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9742990732192993</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>modelSVM.pkl</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>files/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0.92523364485981308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0.94859813084112155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0.42568191885948181</v>
+      </c>
+      <c r="E4">
+        <v>0.89485979080200195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0.18608863651752469</v>
+      </c>
+      <c r="E5">
+        <v>0.94392526149749756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.10195955634117131</v>
+      </c>
+      <c r="E6">
+        <v>0.97429907321929932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>0.1212121212121212</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>modelRandomForest.pkl</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>files/</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>modelCNN.model</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>files/</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>3.656139612197876</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.6363636255264282</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>modelRNN.model</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>files/</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>3.805042266845703</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1818181872367859</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>modelMLP.model</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>files/</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3.09204888343811</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6060606241226196</v>
+      <c r="E9">
+        <v>0.63636362552642822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>3.8050422668457031</v>
+      </c>
+      <c r="E10">
+        <v>0.18181818723678589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>3.0920488834381099</v>
+      </c>
+      <c r="E11">
+        <v>0.60606062412261963</v>
       </c>
     </row>
   </sheetData>

--- a/Bioc/Dane.xlsx
+++ b/Bioc/Dane.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\PycharmProjects\pythonProject6\Bioc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F62A91-B016-481C-8AA1-2433349922F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
-  <si>
-    <t>Model Testu</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Test score</t>
-  </si>
-  <si>
-    <t>Test accuracy</t>
-  </si>
-  <si>
-    <t>modelSVM.pkl</t>
-  </si>
-  <si>
-    <t>audio files/</t>
-  </si>
-  <si>
-    <t>modelRandomForest.pkl</t>
-  </si>
-  <si>
-    <t>modelCNN.model</t>
-  </si>
-  <si>
-    <t>modelRNN.model</t>
-  </si>
-  <si>
-    <t>modelMLP.model</t>
-  </si>
-  <si>
-    <t>files/</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,192 +420,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Model Testu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Path</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Test score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Test accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>modelSVM.pkl</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>files test/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0.92523364485981308</v>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>modelRandomForest.pkl</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>files test/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0.94859813084112155</v>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>modelCNN.model</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>files test/</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5.493959903717041</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3571428656578064</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0.42568191885948181</v>
-      </c>
-      <c r="E4">
-        <v>0.89485979080200195</v>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>modelRNN.model</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>files test/</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1.642903327941895</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7142857313156128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>0.18608863651752469</v>
-      </c>
-      <c r="E5">
-        <v>0.94392526149749756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0.10195955634117131</v>
-      </c>
-      <c r="E6">
-        <v>0.97429907321929932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0.1212121212121212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0.54545454545454541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>3.656139612197876</v>
-      </c>
-      <c r="E9">
-        <v>0.63636362552642822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>3.8050422668457031</v>
-      </c>
-      <c r="E10">
-        <v>0.18181818723678589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>3.0920488834381099</v>
-      </c>
-      <c r="E11">
-        <v>0.60606062412261963</v>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>modelMLP.model</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>files test/</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8.867466926574707</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
